--- a/Analysis/startpause.xlsx
+++ b/Analysis/startpause.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$1</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="295">
   <si>
     <t>Function Name</t>
   </si>
@@ -698,6 +699,222 @@
   </si>
   <si>
     <t>||||||| + CMFCToolBarImages::UpdateInternalImage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - MGen.exe (PID: 20556)</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||||||||||||||||||||| - CMFCRibbonBar::LoadFromResource</t>
+  </si>
+  <si>
+    <t>|||||||||||||||||||||||||||||||||||||||| - CMFCRibbonInfoLoader::Load</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||||||||||||||||||||||| - CMFCRibbonInfoLoader::LoadFromBuffer</t>
+  </si>
+  <si>
+    <t>|||||||||||||||||||||||||||||||||||||||||| - CMFCRibbonInfoLoader::LoadImageA</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||||||||||||||||||||||||| - CMFCToolBarImages::SmoothResize</t>
+  </si>
+  <si>
+    <t>|||||||||||||||||||||||||||||||||||||||||||| + CMFCToolBarImages::UpdateInternalImage</t>
+  </si>
+  <si>
+    <t>|||||||||||||||||||||||||||||||||||||||||||| + CDrawingManager::CreateBitmap_32</t>
+  </si>
+  <si>
+    <t>|||||||||||||||||||||||||||||||||||||||||||| + CMFCZoomKernel::Create</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||||||||||||||||||||||||| + CMFCToolBarImages::UpdateInternalImage</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||||||||||||||||||||||||| + CMFCRibbonInfoLoader::LoadImageA</t>
+  </si>
+  <si>
+    <t>|||||||||||||||||||||||||||||||||||||||||| + CMFCRibbonInfo::Read</t>
+  </si>
+  <si>
+    <t>|||||||||||||||||||||||||||||||||||||||| + CMFCRibbonConstructor::ConstructRibbonBar</t>
+  </si>
+  <si>
+    <t>|||||||||||||||||||||||||||||||||||||||| + CMFCRibbonInfo::XRibbonBar::~XRibbonBar</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||||||||||||||||||||| - CDockingManager::EnableAutoHidePanes</t>
+  </si>
+  <si>
+    <t>|||||||||||||||||||||||||||||||||||||||| - CDockingManager::EnableDocking</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||||||||||||||||||||||| - CDockingManager::AdjustDockingLayout</t>
+  </si>
+  <si>
+    <t>|||||||||||||||||||||||||||||||||||||||||| - CMFCRibbonBar::CalcFixedLayout</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||||||||||||||||||||||||| - CMFCRibbonCategory::GetMaxHeight</t>
+  </si>
+  <si>
+    <t>|||||||||||||||||||||||||||||||||||||||||||| - CMFCRibbonPanel::GetHeight</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||||||||||||||||||||||||||| - CMFCRibbonButton::OnCalcTextSize</t>
+  </si>
+  <si>
+    <t>|||||||||||||||||||||||||||||||||||||||||||||| - CMFCRibbonButton::DrawBottomText</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||||||||||||||||||||||||||||| - CMenuImages::Size</t>
+  </si>
+  <si>
+    <t>|||||||||||||||||||||||||||||||||||||||||||||||| - CMenuImages::Initialize</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||||||||||||||||||||||||||||||| - CMFCToolBarImages::SmoothResize</t>
+  </si>
+  <si>
+    <t>|||||||||||||||||||||||||||||||||||||||||||||||||| + CMFCToolBarImages::UpdateInternalImage</t>
+  </si>
+  <si>
+    <t>|||||||||||||||||||||||||||||||||||||||||||||||||| + gdi32.dll!0x007ff87b2b159e</t>
+  </si>
+  <si>
+    <t>|||||||||||||||||||||||||||||||||||||||||||||||||| + CMFCZoomKernel::Empty</t>
+  </si>
+  <si>
+    <t>|||||||||||||||||||||||||||||||||||||||||||||||||| + AfxDeleteObject</t>
+  </si>
+  <si>
+    <t>|||||||||||||||||||||||||||||||||||||||||||||||||| + CDrawingManager::CreateBitmap_32</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||||||||||||||||||||||||||||||||   memset</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||||||||||||||||||||||||||||||| + CMFCToolBarImages::MapBmpTo3dColors</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||||||||||||||||||||||||||||||| + CMFCToolBarImages::LoadStr</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||||||||||||||||||||||||||||||| + CMFCToolBarImages::UpdateInternalImage</t>
+  </si>
+  <si>
+    <t>|||||||||||||||||||||||||||||||||||||||| + CDockingManager::AdjustDockingLayout</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||||||||||||||||||||| + RtMidiOut::RtMidiOut</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||||||||||||||||||||| + CMainFrame::CreateDockingWindows</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||||||||||||||||||||| + CMainFrame::LoadAlgo</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||||||||||||||||||||| + CDockingManager::DockPane</t>
+  </si>
+  <si>
+    <t>||||||||||||||||||||||||||||||||||||||| + CFrameWndEx::OnCreate</t>
+  </si>
+  <si>
+    <t>|||||||||||||||||||||||| + win32kfull.sys!0xfffff16ed8c622c8</t>
+  </si>
+  <si>
+    <t>|||||||||||||||||||||||| + win32kfull.sys!0xfffff16ed8c614a5</t>
+  </si>
+  <si>
+    <t>|||||||||||||||||||||||| + win32kfull.sys!0xfffff16ed8c61d30</t>
+  </si>
+  <si>
+    <t>|||||||||||||||||||||| + ntdll.dll!0x007ff87b653b14</t>
+  </si>
+  <si>
+    <t>||||||||||||||| + CFrameWnd::GetIconWndClass</t>
+  </si>
+  <si>
+    <t>|||||||||||||| + CFrameImpl::OnLoadFrame</t>
+  </si>
+  <si>
+    <t>|||||||||||| + CFrameWnd::InitialUpdateFrame</t>
+  </si>
+  <si>
+    <t>|||||| + win32u.dll!0x007ff878a614a4</t>
+  </si>
+  <si>
+    <t>|||||| + GdiPlus.dll!0x007ff8692859df</t>
+  </si>
+  <si>
+    <t>|||||| + AfxOleInit</t>
+  </si>
+  <si>
+    <t>|||||| + CWinApp::InitInstance</t>
+  </si>
+  <si>
+    <t>||||| + CWinThread::Run</t>
+  </si>
+  <si>
+    <t>||||| + CMGenApp::ExitInstance</t>
+  </si>
+  <si>
+    <t>|||| + _initterm</t>
+  </si>
+  <si>
+    <t>|||| + common_exit</t>
+  </si>
+  <si>
+    <t>||| + ntdll.dll!0x007ff87b5e46de</t>
+  </si>
+  <si>
+    <t>||| + GdiPlus.dll!0x007ff86928135f</t>
+  </si>
+  <si>
+    <t>| + ntdll.dll!0x007ff87b653b14</t>
+  </si>
+  <si>
+    <t>| + ntoskrnl.exe!0xfffff8000f1fa553</t>
+  </si>
+  <si>
+    <t>| + ntoskrnl.exe!0xfffff8000f59546e</t>
+  </si>
+  <si>
+    <t>| + ntdll.dll!0x007ff87b6291be</t>
+  </si>
+  <si>
+    <t>| + nvlddmkm.sys!0xfffff80f29eb3c33</t>
+  </si>
+  <si>
+    <t>| + nvlddmkm.sys!0xfffff80f29e9267d</t>
+  </si>
+  <si>
+    <t>|   nvlddmkm.sys!0xfffff80f2a10b930</t>
+  </si>
+  <si>
+    <t>|   nvlddmkm.sys!0xfffff80f29ebc5cf</t>
+  </si>
+  <si>
+    <t>|   nvlddmkm.sys!0xfffff80f2a23b750</t>
+  </si>
+  <si>
+    <t>|   nvlddmkm.sys!0xfffff80f29ddd32a</t>
+  </si>
+  <si>
+    <t>| + nvlddmkm.sys!0xfffff80f29de6849</t>
+  </si>
+  <si>
+    <t>|   nvlddmkm.sys!0xfffff80f29de6407</t>
+  </si>
+  <si>
+    <t>| + nvlddmkm.sys!0xfffff80f29ec36e8</t>
+  </si>
+  <si>
+    <t>|   nvlddmkm.sys!0xfffff80f29dea635</t>
+  </si>
+  <si>
+    <t>|   nvlddmkm.sys!0xfffff80f2a282690</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -2117,7 +2334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A107" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F149" sqref="F149"/>
     </sheetView>
   </sheetViews>
@@ -4134,4 +4351,1254 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="84.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2">
+        <v>14573</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>13667</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.93779999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>13667</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.93779999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>13654</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.93689999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>13651</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.93669999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>13436</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7">
+        <v>13430</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.92159999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>13430</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.92159999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>13430</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.92159999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>13430</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.92159999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>13430</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.92159999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>13430</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.92159999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>13411</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.92030000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>13411</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.92030000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>12548</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>12547</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>12547</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>12547</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>12547</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>12547</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>12547</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>12547</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24">
+        <v>12532</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.8599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25">
+        <v>12532</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.8599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26">
+        <v>12528</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.85970000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27">
+        <v>12528</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.85970000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28">
+        <v>12528</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.85970000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29">
+        <v>12528</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.85970000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30">
+        <v>12528</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.85970000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31">
+        <v>12528</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.85970000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32">
+        <v>12528</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.85970000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33">
+        <v>12528</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.85970000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34">
+        <v>12528</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.85970000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35">
+        <v>12528</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.85970000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36">
+        <v>12528</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.85970000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37">
+        <v>12528</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.85970000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38">
+        <v>12528</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.85970000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39">
+        <v>12528</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.85970000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>173</v>
+      </c>
+      <c r="B40">
+        <v>12528</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.85970000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B41" s="7">
+        <v>6766</v>
+      </c>
+      <c r="C41" s="8">
+        <v>0.46429999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B42" s="7">
+        <v>6761</v>
+      </c>
+      <c r="C42" s="8">
+        <v>0.46389999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B43" s="7">
+        <v>6761</v>
+      </c>
+      <c r="C43" s="8">
+        <v>0.46389999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B44" s="7">
+        <v>6757</v>
+      </c>
+      <c r="C44" s="8">
+        <v>0.4637</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B45" s="7">
+        <v>3949</v>
+      </c>
+      <c r="C45" s="8">
+        <v>0.27100000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B46" s="7">
+        <v>3943</v>
+      </c>
+      <c r="C46" s="8">
+        <v>0.27060000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>230</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>231</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B49" s="7">
+        <v>2709</v>
+      </c>
+      <c r="C49" s="8">
+        <v>0.18590000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>233</v>
+      </c>
+      <c r="B50">
+        <v>99</v>
+      </c>
+      <c r="C50" s="2">
+        <v>6.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>234</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51" s="2">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>235</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52" s="2">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>236</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B54" s="7">
+        <v>5741</v>
+      </c>
+      <c r="C54" s="8">
+        <v>0.39389999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B55" s="7">
+        <v>5740</v>
+      </c>
+      <c r="C55" s="8">
+        <v>0.39389999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B56" s="7">
+        <v>5740</v>
+      </c>
+      <c r="C56" s="8">
+        <v>0.39389999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B57" s="7">
+        <v>5740</v>
+      </c>
+      <c r="C57" s="8">
+        <v>0.39389999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B58" s="7">
+        <v>5740</v>
+      </c>
+      <c r="C58" s="8">
+        <v>0.39389999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B59" s="7">
+        <v>5740</v>
+      </c>
+      <c r="C59" s="8">
+        <v>0.39389999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B60" s="7">
+        <v>5740</v>
+      </c>
+      <c r="C60" s="8">
+        <v>0.39389999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B61" s="7">
+        <v>5740</v>
+      </c>
+      <c r="C61" s="8">
+        <v>0.39389999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B62" s="7">
+        <v>5740</v>
+      </c>
+      <c r="C62" s="8">
+        <v>0.39389999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B63" s="7">
+        <v>5740</v>
+      </c>
+      <c r="C63" s="8">
+        <v>0.39389999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B64" s="7">
+        <v>3225</v>
+      </c>
+      <c r="C64" s="8">
+        <v>0.2213</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B65" s="7">
+        <v>3219</v>
+      </c>
+      <c r="C65" s="8">
+        <v>0.22090000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>249</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>250</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>251</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>252</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>253</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>252</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B72" s="7">
+        <v>1846</v>
+      </c>
+      <c r="C72" s="8">
+        <v>0.12670000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>255</v>
+      </c>
+      <c r="B73">
+        <v>342</v>
+      </c>
+      <c r="C73" s="2">
+        <v>2.35E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>256</v>
+      </c>
+      <c r="B74">
+        <v>327</v>
+      </c>
+      <c r="C74" s="2">
+        <v>2.24E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>257</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>258</v>
+      </c>
+      <c r="B76">
+        <v>16</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>259</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>260</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>262</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>263</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>264</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>265</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>266</v>
+      </c>
+      <c r="B84">
+        <v>15</v>
+      </c>
+      <c r="C84" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>267</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>268</v>
+      </c>
+      <c r="B86">
+        <v>863</v>
+      </c>
+      <c r="C86" s="2">
+        <v>5.9200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>269</v>
+      </c>
+      <c r="B87">
+        <v>19</v>
+      </c>
+      <c r="C87" s="2">
+        <v>1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>270</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>271</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>272</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>273</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>274</v>
+      </c>
+      <c r="B92">
+        <v>213</v>
+      </c>
+      <c r="C92" s="2">
+        <v>1.46E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>275</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>276</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>277</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>278</v>
+      </c>
+      <c r="B96">
+        <v>9</v>
+      </c>
+      <c r="C96" s="2">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>279</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97" s="2">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>280</v>
+      </c>
+      <c r="B98">
+        <v>816</v>
+      </c>
+      <c r="C98" s="2">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>281</v>
+      </c>
+      <c r="B99">
+        <v>54</v>
+      </c>
+      <c r="C99" s="2">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>282</v>
+      </c>
+      <c r="B100">
+        <v>17</v>
+      </c>
+      <c r="C100" s="2">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>283</v>
+      </c>
+      <c r="B101">
+        <v>6</v>
+      </c>
+      <c r="C101" s="2">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>284</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>285</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>286</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>287</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>288</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>289</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>290</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>291</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>292</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>293</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>294</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>